--- a/工作/职位信息.xlsx
+++ b/工作/职位信息.xlsx
@@ -721,7 +721,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,6 +737,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +763,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -801,29 +807,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
@@ -848,33 +845,6 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -979,6 +949,10 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1021,50 +995,90 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="14">
-    <tableColumn id="1" name="权重" dataDxfId="16"/>
-    <tableColumn id="2" name="满意度" dataDxfId="15"/>
-    <tableColumn id="3" name="匹配度" dataDxfId="14"/>
-    <tableColumn id="4" name="类别" dataDxfId="13"/>
-    <tableColumn id="5" name="名称" dataDxfId="12"/>
+    <tableColumn id="1" name="权重" dataDxfId="14"/>
+    <tableColumn id="2" name="满意度" dataDxfId="13"/>
+    <tableColumn id="3" name="匹配度" dataDxfId="12"/>
+    <tableColumn id="4" name="类别" dataDxfId="11"/>
+    <tableColumn id="5" name="名称" dataDxfId="10"/>
     <tableColumn id="6" name="网站"/>
-    <tableColumn id="7" name="地址" dataDxfId="4" dataCellStyle="超链接"/>
+    <tableColumn id="7" name="地址" dataDxfId="9" dataCellStyle="超链接"/>
     <tableColumn id="8" name="薪资"/>
-    <tableColumn id="9" name="职责和要求技能" dataDxfId="11"/>
+    <tableColumn id="9" name="职责和要求技能" dataDxfId="8"/>
     <tableColumn id="10" name="待遇"/>
-    <tableColumn id="11" name="备注" dataDxfId="10"/>
-    <tableColumn id="12" name="公司名称" dataDxfId="9"/>
-    <tableColumn id="13" name="公司规模" dataDxfId="8"/>
-    <tableColumn id="14" name="地址2" dataDxfId="7"/>
+    <tableColumn id="11" name="备注" dataDxfId="7"/>
+    <tableColumn id="12" name="公司名称" dataDxfId="6"/>
+    <tableColumn id="13" name="公司规模" dataDxfId="5"/>
+    <tableColumn id="14" name="地址2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:C2" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:C2" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="职位"/>
     <tableColumn id="2" name="公司"/>
-    <tableColumn id="3" name="网页" dataDxfId="3" dataCellStyle="超链接"/>
+    <tableColumn id="3" name="网页" dataDxfId="2" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表4_6" displayName="表4_6" ref="A1:C2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表4_6" displayName="表4_6" ref="A1:C2" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="3">
     <tableColumn id="1" name="职位"/>
     <tableColumn id="2" name="公司"/>
-    <tableColumn id="3" name="网页" dataDxfId="1" dataCellStyle="超链接"/>
+    <tableColumn id="3" name="网页" dataDxfId="0" dataCellStyle="超链接"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1357,9 +1371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1506,51 +1520,51 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" s="25" customFormat="1" ht="14.4">
+      <c r="A4" s="23">
         <f t="shared" ref="A4:A7" si="0">B4*C4</f>
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="23">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" ht="14.4">
       <c r="A5" s="3">

--- a/工作/职位信息.xlsx
+++ b/工作/职位信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,15 +372,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址2</t>
   </si>
   <si>
     <t>河南青果网络技术有限公司</t>
@@ -671,6 +664,50 @@
       </rPr>
       <t>，mysql，架构</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南吾言文化传播有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开发服务器工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhipin.com/job_detail/121c7fb72ec6565f1nFy2tm8GFo~.html?ka=search_list_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-25K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世博中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏架构，大数据分析，精通网络通信协议，Memcached，服务器监控和优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1078,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="14">
     <tableColumn id="1" name="权重" dataDxfId="14"/>
     <tableColumn id="2" name="满意度" dataDxfId="13"/>
@@ -1049,14 +1086,14 @@
     <tableColumn id="4" name="类别" dataDxfId="11"/>
     <tableColumn id="5" name="名称" dataDxfId="10"/>
     <tableColumn id="6" name="网站"/>
-    <tableColumn id="7" name="地址" dataDxfId="9" dataCellStyle="超链接"/>
+    <tableColumn id="7" name="网址" dataDxfId="9" dataCellStyle="超链接"/>
     <tableColumn id="8" name="薪资"/>
     <tableColumn id="9" name="职责和要求技能" dataDxfId="8"/>
     <tableColumn id="10" name="待遇"/>
     <tableColumn id="11" name="备注" dataDxfId="7"/>
     <tableColumn id="12" name="公司名称" dataDxfId="6"/>
     <tableColumn id="13" name="公司规模" dataDxfId="5"/>
-    <tableColumn id="14" name="地址2" dataDxfId="4"/>
+    <tableColumn id="14" name="地址" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1369,11 +1406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1381,7 +1418,7 @@
     <col min="1" max="1" width="6.19921875" style="3" customWidth="1"/>
     <col min="2" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.19921875" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.3984375" style="14" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -1413,7 +1450,7 @@
         <v>70</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>71</v>
@@ -1434,7 +1471,7 @@
         <v>74</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="19" customFormat="1" ht="14.4">
@@ -1487,28 +1524,28 @@
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="J3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>19</v>
@@ -1517,7 +1554,7 @@
         <v>17</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="25" customFormat="1" ht="14.4">
@@ -1547,16 +1584,16 @@
         <v>48</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>42</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M4" s="24" t="s">
         <v>16</v>
@@ -1600,7 +1637,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>17</v>
@@ -1646,7 +1683,7 @@
         <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>17</v>
@@ -1692,7 +1729,7 @@
         <v>33</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>34</v>
@@ -1785,13 +1822,13 @@
         <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>63</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>34</v>
@@ -1806,7 +1843,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>59</v>
@@ -1815,26 +1852,26 @@
         <v>60</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="19" customFormat="1" ht="14.4">
@@ -1842,37 +1879,37 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="H12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="J12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="16" t="s">
+      <c r="L12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="19" customFormat="1" ht="14.4">
@@ -1880,37 +1917,37 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="I13" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.4">
@@ -1918,37 +1955,37 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="I14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="M14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.4">
@@ -1956,35 +1993,71 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2004,11 +2077,12 @@
     <hyperlink ref="G13" r:id="rId12"/>
     <hyperlink ref="G14" r:id="rId13"/>
     <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2029,24 +2103,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2078,24 +2152,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/工作/职位信息.xlsx
+++ b/工作/职位信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,22 +30,6 @@
   </si>
   <si>
     <t>6K-10K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，mongo，redis，mysql；linux下socket；网络协议；</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小游戏服务端工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,21 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zhipin.com/job_detail/fce6bd2ec1303c0403xy09S1F1s~.html</t>
-  </si>
-  <si>
-    <t>15-25K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1年服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高新技术产业开发区广告产业园3号楼13层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3年服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +358,6 @@
   </si>
   <si>
     <t>郑州国金科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南羲和网络科技股份有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -587,10 +548,6 @@
     <t>boss直聘</t>
   </si>
   <si>
-    <t>熟悉微信和支付宝生态，掌握java core,微服务架构，springboot、springcloud，redis，分布式中间件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏主管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,11 +560,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金融</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端工程师</t>
+    <t>3年服务器，1游戏周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，mysql，架构</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏服务端工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -627,32 +612,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zhipin.com/job_detail/d6520e05b439132a0HR53N6_FlU~.html?ka=search_list_101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-15K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3年开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京企联星科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管城回族区 万众大厦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3年服务器，1游戏周期</t>
+    <t>https://www.zhipin.com/job_detail/fce6bd2ec1303c0403xy09S1F1s~.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-25K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南羲和网络科技股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-499人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高新技术产业开发区广告产业园3号楼13层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>redis</t>
+      <t>java</t>
     </r>
     <r>
       <rPr>
@@ -662,52 +651,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，mysql，架构</t>
+      <t>，mongo，redis，mysql；linux下socket；网络协议；</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河南吾言文化传播有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏开发服务器工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhipin.com/job_detail/121c7fb72ec6565f1nFy2tm8GFo~.html?ka=search_list_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-25K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3年开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世博中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏架构，大数据分析，精通网络通信协议，Memcached，服务器监控和优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址</t>
+    <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +707,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +732,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1DFF83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -800,7 +755,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -852,6 +807,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -984,6 +955,7 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1074,11 +1046,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1DFF83"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="14">
     <tableColumn id="1" name="权重" dataDxfId="14"/>
     <tableColumn id="2" name="满意度" dataDxfId="13"/>
@@ -1406,75 +1383,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.3984375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="46.09765625" customWidth="1"/>
-    <col min="10" max="10" width="33.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.09765625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="33.8984375" customWidth="1"/>
     <col min="11" max="11" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.09765625" customWidth="1"/>
     <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="14.4">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="16.05" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="19" customFormat="1" ht="14.4">
+    <row r="2" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="20">
         <f>B2*C2</f>
         <v>20</v>
@@ -1486,13 +1463,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>2</v>
@@ -1500,110 +1477,110 @@
       <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="K2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="19" customFormat="1" ht="14.4">
+    <row r="3" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="25" customFormat="1" ht="14.4">
-      <c r="A4" s="23">
+    <row r="4" spans="1:15" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="27">
         <f t="shared" ref="A4:A7" si="0">B4*C4</f>
         <v>15</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="27">
         <v>5</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="24"/>
+      <c r="O4" s="28"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4">
+    <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1615,39 +1592,41 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4">
+    <row r="6" spans="1:15" ht="18" customHeight="1">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1659,41 +1638,41 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4">
+    <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1705,359 +1684,301 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="14.4">
+    <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4">
+    <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
+      <c r="I9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="14.4">
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="1"/>
+    <row r="10" spans="1:15" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="24"/>
     </row>
-    <row r="11" spans="1:15" ht="14.4">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="L11" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="19" customFormat="1" ht="14.4">
+    <row r="12" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="M12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="N12" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="13" spans="1:15" s="19" customFormat="1" ht="14.4">
+    <row r="13" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="N13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="14" spans="1:15" ht="14.4">
+    <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="14.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2076,13 +1997,11 @@
     <hyperlink ref="G12" r:id="rId11"/>
     <hyperlink ref="G13" r:id="rId12"/>
     <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2103,24 +2022,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2152,24 +2071,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/工作/职位信息.xlsx
+++ b/工作/职位信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,9 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zhipin.com/job_detail/63bc5237b6582c590n1439u8F1Y~.html?ka=search_list_13</t>
-  </si>
-  <si>
     <t>设计过部分服务器框架，并对框架有深刻的认识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,53 +375,6 @@
   </si>
   <si>
     <t>6-8K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测绘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhipin.com/job_detail/c3f9c9aba2ead1c70X143t2-GFA~.html?ka=search_list_43</t>
-  </si>
-  <si>
-    <t>8-9K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring，springmvc，jfinal，orecle,mysql,http 协议、TCP协议、缓存、jvm 调优、序列化、nio/netty、RPC 调用框架等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIS开发优先考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五险一金，股票，餐补，车补，年终奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南省交通规划设计研究院股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000-9999人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中牟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2年服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非关系型数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,49 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>springcloud,restful,tomcat配置和使用，熟悉前端框架和技术（jq，vue，js,ajax）,shell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五险一金，年终奖，年假，餐补</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中科软科技股份有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000人以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金水区中国人保大厦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1年开发，南京出差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhipin.com/job_detail/357a6ccfac3cd5530X1_09S0GVA~.html?ka=search_list_86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-12K*13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss直聘</t>
-  </si>
-  <si>
     <t>游戏主管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,12 +566,16 @@
     <t>空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.zhipin.com/job_detail/63bc5237b6582c590n1439u8F1Y~.html?ka=search_list_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +615,12 @@
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -755,7 +672,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -785,12 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,7 +733,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1055,7 +968,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="14">
     <tableColumn id="1" name="权重" dataDxfId="14"/>
     <tableColumn id="2" name="满意度" dataDxfId="13"/>
@@ -1383,11 +1296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1399,7 +1312,7 @@
     <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.3984375" style="14" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.09765625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="46.09765625" style="31" customWidth="1"/>
     <col min="10" max="10" width="33.8984375" customWidth="1"/>
     <col min="11" max="11" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.09765625" customWidth="1"/>
@@ -1412,208 +1325,208 @@
         <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:15" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="16">
         <f>B2*C2</f>
         <v>20</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>4</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>34</v>
+      <c r="N2" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="19" t="s">
+    <row r="3" spans="1:15" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="21" t="s">
+      <c r="G3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="21" t="s">
-        <v>98</v>
+      <c r="N3" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="27">
-        <f t="shared" ref="A4:A7" si="0">B4*C4</f>
-        <v>15</v>
-      </c>
-      <c r="B4" s="27">
-        <v>5</v>
-      </c>
-      <c r="C4" s="27">
-        <v>3</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="29" t="s">
+    <row r="4" spans="1:15" ht="18" customHeight="1">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A5" si="0">B4*C4</f>
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="I4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="28"/>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
+      <c r="I5" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>72</v>
@@ -1622,386 +1535,284 @@
         <v>16</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1">
-      <c r="D8" s="1" t="s">
-        <v>26</v>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="D9" s="1" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1">
+      <c r="A10" s="3">
+        <f>B10*C10</f>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" s="21" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="23">
+        <f>B12*C12</f>
+        <v>15</v>
+      </c>
+      <c r="B12" s="23">
+        <v>5</v>
+      </c>
+      <c r="C12" s="23">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="O10" s="24"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="I12" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>108</v>
-      </c>
+      <c r="M12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G11" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId9"/>
     <hyperlink ref="G3" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2022,24 +1833,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2071,24 +1882,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/工作/职位信息.xlsx
+++ b/工作/职位信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>java工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java手游开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,22 +163,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计过部分服务器框架，并对框架有深刻的认识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班补助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2年服务器，1游戏周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100-499人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大学科技园东区11号楼1602</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8-15K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10-15K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,26 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小游戏服务端工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>boss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直聘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3年服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河南青果网络技术有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>郑州百易科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,26 +311,6 @@
   </si>
   <si>
     <t>郑州国金科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1游戏周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州中原国家广告产业园3号楼 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhipin.com/job_detail/5268439c09e4211d03xy3NW0EFA~.html?ka=search_list_35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-8K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -567,7 +503,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>java手游开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-15K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-99人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计过部分服务器框架，并对框架有深刻的认识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.zhipin.com/job_detail/63bc5237b6582c590n1439u8F1Y~.html?ka=search_list_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +644,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -732,10 +704,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -968,8 +950,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <tableColumns count="15">
+    <tableColumn id="15" name="投递情况"/>
     <tableColumn id="1" name="权重" dataDxfId="14"/>
     <tableColumn id="2" name="满意度" dataDxfId="13"/>
     <tableColumn id="3" name="匹配度" dataDxfId="12"/>
@@ -1296,523 +1279,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.3984375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.09765625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="33.8984375" customWidth="1"/>
-    <col min="11" max="11" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.09765625" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.09765625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="33.8984375" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.09765625" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="16.05" customHeight="1">
+    <row r="1" spans="1:16" s="11" customFormat="1" ht="16.05" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1">
+      <c r="B3" s="3">
+        <f t="shared" ref="B3" si="0">C3*D3</f>
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1">
+      <c r="C4" s="3"/>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:16" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16">
+        <f>C6*D6</f>
+        <v>20</v>
+      </c>
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="M6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="36">
+        <f>C7*D7</f>
+        <v>20</v>
+      </c>
+      <c r="C7" s="36">
+        <v>4</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="36">
+        <f>C9*D9</f>
+        <v>16</v>
+      </c>
+      <c r="C9" s="36">
+        <v>4</v>
+      </c>
+      <c r="D9" s="36">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="N9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="1"/>
     </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="16">
-        <f>B2*C2</f>
-        <v>20</v>
-      </c>
-      <c r="B2" s="16">
-        <v>4</v>
-      </c>
-      <c r="C2" s="16">
-        <v>5</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>33</v>
-      </c>
+    <row r="10" spans="1:16" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
-      <c r="A4" s="3">
-        <f t="shared" ref="A4:A5" si="0">B4*C4</f>
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1">
-      <c r="A5" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1">
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="A10" s="3">
-        <f>B10*C10</f>
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" s="21" customFormat="1" ht="18" customHeight="1">
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="D11" s="19"/>
       <c r="E11" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="20"/>
     </row>
-    <row r="12" spans="1:15" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="23">
-        <f>B12*C12</f>
+    <row r="12" spans="1:16" s="25" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23">
+        <f>C12*D12</f>
         <v>15</v>
       </c>
-      <c r="B12" s="23">
+      <c r="C12" s="23">
         <v>5</v>
       </c>
-      <c r="C12" s="23">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="E12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>40</v>
+      <c r="G12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G12" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="G11" r:id="rId8"/>
-    <hyperlink ref="G8" r:id="rId9"/>
-    <hyperlink ref="G3" r:id="rId10"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H12" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="H7" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="H4" r:id="rId7"/>
+    <hyperlink ref="H11" r:id="rId8"/>
+    <hyperlink ref="H2" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1833,24 +1813,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1882,24 +1862,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.4">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/工作/职位信息.xlsx
+++ b/工作/职位信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,6 +540,10 @@
   </si>
   <si>
     <t>未查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被拒绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -716,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1283,7 +1290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1730,7 +1737,9 @@
       <c r="P11" s="20"/>
     </row>
     <row r="12" spans="1:16" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="41" t="s">
+        <v>107</v>
+      </c>
       <c r="B12" s="23">
         <f>C12*D12</f>
         <v>15</v>
